--- a/resources/parameter_liste.xlsx
+++ b/resources/parameter_liste.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertoplitsch/R-Projects/sfc/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B8449-08A5-E640-A476-8B82F07F6285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE4DC9-CFAF-9E4D-99F3-8C9ECD107673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="740" windowWidth="10000" windowHeight="18900" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="310">
   <si>
     <t>Parameter</t>
   </si>
@@ -223,16 +223,763 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>lambda_11</t>
+  </si>
+  <si>
+    <t>lambda_12</t>
+  </si>
+  <si>
+    <t>lambda_13</t>
+  </si>
+  <si>
+    <t>lambda_14</t>
+  </si>
+  <si>
+    <t>lambda_15</t>
+  </si>
+  <si>
+    <t>lam10</t>
+  </si>
+  <si>
+    <t>lam11</t>
+  </si>
+  <si>
+    <t>lam12</t>
+  </si>
+  <si>
+    <t>lam13</t>
+  </si>
+  <si>
+    <t>lam14</t>
+  </si>
+  <si>
+    <t>lambda_10</t>
+  </si>
+  <si>
+    <t>lam15</t>
+  </si>
+  <si>
+    <t>rrh_e</t>
+  </si>
+  <si>
+    <t>rrhe</t>
+  </si>
+  <si>
+    <t>rrb</t>
+  </si>
+  <si>
+    <t>rre_e</t>
+  </si>
+  <si>
+    <t>rree</t>
+  </si>
+  <si>
+    <t>Yc_e</t>
+  </si>
+  <si>
+    <t>Y1e</t>
+  </si>
+  <si>
+    <t>Vc_e</t>
+  </si>
+  <si>
+    <t>V1e</t>
+  </si>
+  <si>
+    <t>lambda_20</t>
+  </si>
+  <si>
+    <t>lam00</t>
+  </si>
+  <si>
+    <t>lambda_21</t>
+  </si>
+  <si>
+    <t>lambda_22</t>
+  </si>
+  <si>
+    <t>lambda_23</t>
+  </si>
+  <si>
+    <t>lambda_24</t>
+  </si>
+  <si>
+    <t>lambda_25</t>
+  </si>
+  <si>
+    <t>lam01</t>
+  </si>
+  <si>
+    <t>lam02</t>
+  </si>
+  <si>
+    <t>lam03</t>
+  </si>
+  <si>
+    <t>lam04</t>
+  </si>
+  <si>
+    <t>lam05</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>spread_1</t>
+  </si>
+  <si>
+    <t>spread_2</t>
+  </si>
+  <si>
+    <t>spread_3</t>
+  </si>
+  <si>
+    <t>spread1</t>
+  </si>
+  <si>
+    <t>spread3</t>
+  </si>
+  <si>
+    <t>spread2</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>CONS2</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>CONS2K</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>Y2K</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>Wage2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>V2K</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>CGHo</t>
+  </si>
+  <si>
+    <t>cgh2</t>
+  </si>
+  <si>
+    <t>morp</t>
+  </si>
+  <si>
+    <t>morep</t>
+  </si>
+  <si>
+    <t>alpha_1o</t>
+  </si>
+  <si>
+    <t>alpha_0o</t>
+  </si>
+  <si>
+    <t>alpha_2o</t>
+  </si>
+  <si>
+    <t>alpha_3o</t>
+  </si>
+  <si>
+    <t>alpha_4o</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>parim</t>
+  </si>
+  <si>
+    <t>MOo</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>HPo</t>
+  </si>
+  <si>
+    <t>HH2</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>y_e</t>
+  </si>
+  <si>
+    <t>grye</t>
+  </si>
+  <si>
+    <t>delta_k</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>iota_0</t>
+  </si>
+  <si>
+    <t>iota_1</t>
+  </si>
+  <si>
+    <t>iota_2</t>
+  </si>
+  <si>
+    <t>iota_3</t>
+  </si>
+  <si>
+    <t>iota_4</t>
+  </si>
+  <si>
+    <t>gr0</t>
+  </si>
+  <si>
+    <t>gr1</t>
+  </si>
+  <si>
+    <t>gr2</t>
+  </si>
+  <si>
+    <t>gr3</t>
+  </si>
+  <si>
+    <t>gr4</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>lev</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>unorm</t>
+  </si>
+  <si>
+    <t>rll</t>
+  </si>
+  <si>
+    <t>rrl</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>rl</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sfc</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>rho_1</t>
+  </si>
+  <si>
+    <t>ropar</t>
+  </si>
+  <si>
+    <t>prodg</t>
+  </si>
+  <si>
+    <t>wo_g</t>
+  </si>
+  <si>
+    <t>inflw2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>Bcb</t>
+  </si>
+  <si>
+    <t>Bc</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>chi_2</t>
+  </si>
+  <si>
+    <t>hbpar</t>
+  </si>
+  <si>
+    <t>chi_1</t>
+  </si>
+  <si>
+    <t>parbb</t>
+  </si>
+  <si>
+    <t>HPb</t>
+  </si>
+  <si>
+    <t>Hb</t>
+  </si>
+  <si>
+    <t>rra</t>
+  </si>
+  <si>
+    <t>rrc</t>
+  </si>
+  <si>
+    <t>rmo</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>tau_f</t>
+  </si>
+  <si>
+    <t>tfrate</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gk</t>
+  </si>
+  <si>
+    <t>tau_d</t>
+  </si>
+  <si>
+    <t>dtrate</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>IHK</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>nhd</t>
+  </si>
+  <si>
+    <t>HNS</t>
+  </si>
+  <si>
+    <t>nhs</t>
+  </si>
+  <si>
+    <t>v_1</t>
+  </si>
+  <si>
+    <t>a1nh</t>
+  </si>
+  <si>
+    <t>v_2</t>
+  </si>
+  <si>
+    <t>a2nh</t>
+  </si>
+  <si>
+    <t>ph1</t>
+  </si>
+  <si>
+    <t>ph2</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>CONSK</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>gry</t>
+  </si>
+  <si>
+    <t>p_</t>
+  </si>
+  <si>
+    <t>infl</t>
+  </si>
+  <si>
+    <t>omega_c</t>
+  </si>
+  <si>
+    <t>wage1sh</t>
+  </si>
+  <si>
+    <t>(1-omega_c)</t>
+  </si>
+  <si>
+    <t>wage2sh</t>
+  </si>
+  <si>
+    <t>prod1</t>
+  </si>
+  <si>
+    <t>prod2</t>
+  </si>
+  <si>
+    <t>prodc</t>
+  </si>
+  <si>
+    <t>prodo</t>
+  </si>
+  <si>
+    <t>dut</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>wc_g</t>
+  </si>
+  <si>
+    <t>inflw1</t>
+  </si>
+  <si>
+    <t>shockprodg</t>
+  </si>
+  <si>
+    <t>shockprod</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>wshare</t>
+  </si>
+  <si>
+    <t>chi1</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>chi0</t>
+  </si>
+  <si>
+    <t>pi_0</t>
+  </si>
+  <si>
+    <t>o_1</t>
+  </si>
+  <si>
+    <t>o_2</t>
+  </si>
+  <si>
+    <t>o_0</t>
+  </si>
+  <si>
+    <t>prodg0</t>
+  </si>
+  <si>
+    <t>pi_1</t>
+  </si>
+  <si>
+    <t>parprod</t>
+  </si>
+  <si>
+    <t>shockwc_g</t>
+  </si>
+  <si>
+    <t>shockinflw1</t>
+  </si>
+  <si>
+    <t>shockwo_g</t>
+  </si>
+  <si>
+    <t>shockinflw2</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>ngr0</t>
+  </si>
+  <si>
+    <t>okun</t>
+  </si>
+  <si>
+    <t>pokun</t>
+  </si>
+  <si>
+    <t>prodg_e</t>
+  </si>
+  <si>
+    <t>prodge</t>
+  </si>
+  <si>
+    <t>yo_e</t>
+  </si>
+  <si>
+    <t>Y2KE</t>
+  </si>
+  <si>
+    <t>sigma_p_e</t>
+  </si>
+  <si>
+    <t>thetap</t>
+  </si>
+  <si>
+    <t>sigma_pg</t>
+  </si>
+  <si>
+    <t>thetapr</t>
+  </si>
+  <si>
+    <t>sigma_yg</t>
+  </si>
+  <si>
+    <t>thetagr</t>
+  </si>
+  <si>
+    <t>re_e</t>
+  </si>
+  <si>
+    <t>ree</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>thetare</t>
+  </si>
+  <si>
+    <t>rh_e</t>
+  </si>
+  <si>
+    <t>rhe</t>
+  </si>
+  <si>
+    <t>pe_e</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>peg_e</t>
+  </si>
+  <si>
+    <t>pege</t>
+  </si>
+  <si>
+    <t>sigma_pe</t>
+  </si>
+  <si>
+    <t>thetape</t>
+  </si>
+  <si>
+    <t>shockphg_e</t>
+  </si>
+  <si>
+    <t>shockpege</t>
+  </si>
+  <si>
+    <t>CGHc_e</t>
+  </si>
+  <si>
+    <t>cgh1_e</t>
+  </si>
+  <si>
+    <t>CGHo_e</t>
+  </si>
+  <si>
+    <t>cgh2_e</t>
+  </si>
+  <si>
+    <t>cgho_e</t>
+  </si>
+  <si>
+    <t>cgh2k_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,47 +1014,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -638,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E9CCAC-ADB9-144B-906A-DDA1182C6744}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,14 +1647,1127 @@
         <v>62</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>213</v>
+      </c>
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>228</v>
+      </c>
+      <c r="B134" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B146" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>252</v>
+      </c>
+      <c r="B147" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>253</v>
+      </c>
+      <c r="B148" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>255</v>
+      </c>
+      <c r="B149" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>266</v>
+      </c>
+      <c r="B153" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>265</v>
+      </c>
+      <c r="B156" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>286</v>
+      </c>
+      <c r="B165" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>288</v>
+      </c>
+      <c r="B166" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>290</v>
+      </c>
+      <c r="B167" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>292</v>
+      </c>
+      <c r="B168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>294</v>
+      </c>
+      <c r="B169" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>296</v>
+      </c>
+      <c r="B170" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>298</v>
+      </c>
+      <c r="B171" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>304</v>
+      </c>
+      <c r="B174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>308</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A1048576">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A83 A84:B84 A85:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B1048576">
+  <conditionalFormatting sqref="B3:B83 B85:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/resources/parameter_liste.xlsx
+++ b/resources/parameter_liste.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertoplitsch/R-Projects/sfc/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE4DC9-CFAF-9E4D-99F3-8C9ECD107673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60F365-0175-F749-A90B-912E2CCE9791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$D$188</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="376">
   <si>
     <t>Parameter</t>
   </si>
@@ -243,6 +247,9 @@
     <t>lambda_15</t>
   </si>
   <si>
+    <t>lam21</t>
+  </si>
+  <si>
     <t>lam10</t>
   </si>
   <si>
@@ -945,9 +952,6 @@
     <t>shockphg_e</t>
   </si>
   <si>
-    <t>shockpege</t>
-  </si>
-  <si>
     <t>CGHc_e</t>
   </si>
   <si>
@@ -964,13 +968,214 @@
   </si>
   <si>
     <t>cgh2k_e</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Consumption function</t>
+  </si>
+  <si>
+    <t>Investment function</t>
+  </si>
+  <si>
+    <t>Full capacity production</t>
+  </si>
+  <si>
+    <t>Retained profits</t>
+  </si>
+  <si>
+    <t>Mark-up</t>
+  </si>
+  <si>
+    <t>Tax rates</t>
+  </si>
+  <si>
+    <t>Expectations</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Share of investment financed by issuing equities</t>
+  </si>
+  <si>
+    <t>lam20</t>
+  </si>
+  <si>
+    <t>lam22</t>
+  </si>
+  <si>
+    <t>lam23</t>
+  </si>
+  <si>
+    <t>lam24</t>
+  </si>
+  <si>
+    <t>lam25</t>
+  </si>
+  <si>
+    <t>lambda_30</t>
+  </si>
+  <si>
+    <t>lambda_31</t>
+  </si>
+  <si>
+    <t>lambda_32</t>
+  </si>
+  <si>
+    <t>lambda_33</t>
+  </si>
+  <si>
+    <t>lambda_34</t>
+  </si>
+  <si>
+    <t>lambda_35</t>
+  </si>
+  <si>
+    <t>Parameters in asset demand function</t>
+  </si>
+  <si>
+    <t>Parameters for wage adj function</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Banks spreads on central bank interest rate</t>
+  </si>
+  <si>
+    <t>Real exogenous</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yk</t>
+  </si>
+  <si>
+    <t>yc_yo</t>
+  </si>
+  <si>
+    <t>Yc_Yo</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vk</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Retained Profits</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark-up parameter</t>
+  </si>
+  <si>
+    <t>Growth, capital</t>
+  </si>
+  <si>
+    <t>Normal Sales</t>
+  </si>
+  <si>
+    <t>Utilization rate</t>
+  </si>
+  <si>
+    <t>vke</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>rfc</t>
+  </si>
+  <si>
+    <t>ro0</t>
+  </si>
+  <si>
+    <t>parlc</t>
+  </si>
+  <si>
+    <t>Lc0</t>
+  </si>
+  <si>
+    <t>Bb0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>rrm</t>
+  </si>
+  <si>
+    <t>dt2</t>
+  </si>
+  <si>
+    <t>Tdo</t>
+  </si>
+  <si>
+    <t>cge1</t>
+  </si>
+  <si>
+    <t>phge</t>
+  </si>
+  <si>
+    <t>phg_e</t>
+  </si>
+  <si>
+    <t>v_3</t>
+  </si>
+  <si>
+    <t>a1ph</t>
+  </si>
+  <si>
+    <t>shockphge</t>
+  </si>
+  <si>
+    <t>pegeshock</t>
+  </si>
+  <si>
+    <t>shockpeg_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,6 +1185,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,8 +1217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,69 +1560,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E9CCAC-ADB9-144B-906A-DDA1182C6744}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>$C$70 *5</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>$C$149*$C$156</f>
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>$C$75*750</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>(1-$C$99) * ($C$201 - $C$100 * $C$114-$C$129)</f>
+        <v>400.65983999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+      <c r="D7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1415,1361 +1665,2472 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10">
+        <f>0.17*$C$189</f>
+        <v>1125.4755555555555</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11">
+        <f>0.01 * $C$189</f>
+        <v>66.204444444444434</v>
+      </c>
+      <c r="D11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12">
+        <f>$C$128</f>
+        <v>450.19022222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14">
+        <f>$C$3*$C$4+$C$5+$C$6+$C$7*$C$39+$C$9*$C$11-$C$12</f>
+        <v>798.44908444444445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C15">
+        <f>0.842277*$C$51</f>
+        <v>1218.8085100800001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16">
+        <f>C17*C105</f>
+        <v>1820.622222222222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17">
+        <f>C145</f>
+        <v>1170.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18">
+        <f>($C$19-$C$19)*$C$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20">
+        <f>0.31 *$C$189/$C$19</f>
+        <v>410.46755555555546</v>
+      </c>
+      <c r="D20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24">
+        <f>($C$6+$C$25)/($C$19*$C$20)</f>
+        <v>0.19522119815668207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25">
+        <f>$C$18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>0.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31">
+        <f>$C$190</f>
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33">
+        <f>$C$18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C35">
+        <f>$C$148</f>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C37">
+        <v>0.2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C38">
+        <f>$C$189</f>
+        <v>6620.4444444444434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C39">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C40">
+        <f>$C$189 - $C$11 - $C$20 * $C$19</f>
+        <v>4501.9022222222211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>0.45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>0.03</v>
+      </c>
+      <c r="D48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49">
+        <f>(1+$C$172)/(1+$C$35)-1</f>
+        <v>0.19522119815668204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51">
+        <f xml:space="preserve"> 0.68 *$C$106</f>
+        <v>1447.0400000000002</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52">
+        <f>$C$51*$C$105</f>
+        <v>2250.951111111111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53">
+        <f>$C$38</f>
+        <v>6620.4444444444434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54">
+        <v>0.18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>0.3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>0.25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>0.01</v>
+      </c>
+      <c r="D57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59">
+        <v>0.05</v>
+      </c>
+      <c r="D59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>0.25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61">
+        <f>$C$106-$C$131-$C$145</f>
+        <v>157.59999999999991</v>
+      </c>
+      <c r="D61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62">
+        <f>$C$61 * $C$105</f>
+        <v>245.1555555555554</v>
+      </c>
+      <c r="D62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66">
+        <f>C67*C105</f>
+        <v>1820.622222222222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67">
+        <f>C145</f>
+        <v>1170.4000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68">
+        <f>$C$69*$C$105</f>
+        <v>355.02676209777781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69">
+        <f>0.157723*$C$51</f>
+        <v>228.23148992000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70">
+        <f>10/12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D70" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71">
+        <f>$C$156-$C$4</f>
+        <v>2021.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81">
+        <v>0.08</v>
+      </c>
+      <c r="D81" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93">
+        <v>0.4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94">
+        <f>$C$20*$C$19/$C$101</f>
+        <v>0.62</v>
+      </c>
+      <c r="D94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95">
+        <f xml:space="preserve"> $C$114/$C$101</f>
+        <v>0.66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96">
+        <f>$C$106/$C$107</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D96" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98">
+        <f>(1+$C$100)/(1+$C$35)-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99">
+        <v>0.1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100">
+        <v>0.03</v>
+      </c>
+      <c r="D100" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101">
+        <f>1*$C$146</f>
+        <v>3310.2222222222217</v>
+      </c>
+      <c r="D101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102">
+        <f>$C$101/$C$105</f>
+        <v>2128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103">
+        <v>0.4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104">
+        <f>$C$115 * $C$156</f>
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105">
+        <f>(1 + $C$103) *$C$115/($C$112-$C$113)</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="D105" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106">
+        <f>2.66*$C$131</f>
+        <v>2128</v>
+      </c>
+      <c r="D106" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107">
+        <f>$C$108*$C$102</f>
+        <v>2766.4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108">
+        <v>1.3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109">
+        <v>0.01</v>
+      </c>
+      <c r="D109" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111">
+        <f>$C$154</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112">
+        <f>$C$149*$C$151+$C$150*$C$152</f>
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113">
+        <v>0.1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>191</v>
+      </c>
+      <c r="B114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114">
+        <f>0.33*$C$189</f>
+        <v>2184.7466666666664</v>
+      </c>
+      <c r="D114" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115" t="s">
+        <v>192</v>
+      </c>
+      <c r="C115">
+        <f>$C$149*$C$3+$C$150*$C$70</f>
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118">
+        <f>0.26 * $C$189</f>
+        <v>1721.3155555555554</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119">
+        <f>0.18*$C$189</f>
+        <v>1191.6799999999998</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120">
+        <f>0.36 *$C$189</f>
+        <v>2383.3599999999997</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121">
+        <v>0.25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>209</v>
+      </c>
+      <c r="B125" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126">
+        <f>0.086 * $C$52</f>
+        <v>193.58179555555554</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>211</v>
+      </c>
+      <c r="B127" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128">
+        <f>$C$132*$C$52</f>
+        <v>450.19022222222225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129">
+        <f>$C$130*$C$201</f>
+        <v>340.48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130">
+        <v>0.4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>217</v>
+      </c>
+      <c r="B131" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131">
+        <v>800</v>
+      </c>
+      <c r="D131" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132">
+        <v>0.2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>224</v>
+      </c>
+      <c r="B135" t="s">
+        <v>225</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" t="s">
+        <v>226</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>229</v>
+      </c>
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C144">
+        <f>$C$145 * $C$105</f>
+        <v>1820.622222222222</v>
+      </c>
+      <c r="D144" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145">
+        <f>0.55 *$C$106</f>
+        <v>1170.4000000000001</v>
+      </c>
+      <c r="D145" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146">
+        <f>$C$106*$C$105</f>
+        <v>3310.2222222222217</v>
+      </c>
+      <c r="D146" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147">
+        <v>0.02</v>
+      </c>
+      <c r="D147" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" t="s">
+        <v>245</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" t="s">
+        <v>247</v>
+      </c>
+      <c r="C149">
+        <v>0.05</v>
+      </c>
+      <c r="D149" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150">
+        <v>0.95</v>
+      </c>
+      <c r="D150" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151">
+        <f>5*$C$152</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D151" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="1">
+        <f>10/12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D152" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154">
+        <f>$C$148 + $C$110</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156">
+        <f>$C$106/$C$112</f>
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>261</v>
+      </c>
+      <c r="B157" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" t="s">
+        <v>263</v>
+      </c>
+      <c r="C158">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>268</v>
+      </c>
+      <c r="B159" t="s">
+        <v>264</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" t="s">
+        <v>270</v>
+      </c>
+      <c r="C161">
+        <f>$C$110</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>275</v>
+      </c>
+      <c r="B164" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>279</v>
+      </c>
+      <c r="B166" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167">
+        <f>$C$110</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>283</v>
+      </c>
+      <c r="B168" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>285</v>
+      </c>
+      <c r="B169" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169">
+        <v>0.75</v>
+      </c>
+      <c r="D169" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>287</v>
+      </c>
+      <c r="B170" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170">
+        <v>0.75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>289</v>
+      </c>
+      <c r="B171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171">
+        <v>0.75</v>
+      </c>
+      <c r="D171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>291</v>
+      </c>
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172">
+        <f>$C$24</f>
+        <v>0.19522119815668207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>293</v>
+      </c>
+      <c r="B173" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173">
+        <v>0.75</v>
+      </c>
+      <c r="D173" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>295</v>
+      </c>
+      <c r="B174" t="s">
+        <v>296</v>
+      </c>
+      <c r="C174">
+        <f>$C$26</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>297</v>
+      </c>
+      <c r="B175" t="s">
+        <v>298</v>
+      </c>
+      <c r="C175">
+        <f>$C$19</f>
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>369</v>
+      </c>
+      <c r="B176" t="s">
+        <v>370</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>299</v>
+      </c>
+      <c r="B177" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>301</v>
+      </c>
+      <c r="B178" t="s">
+        <v>302</v>
+      </c>
+      <c r="C178">
+        <v>0.75</v>
+      </c>
+      <c r="D178" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>304</v>
+      </c>
+      <c r="B180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>306</v>
+      </c>
+      <c r="B181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>308</v>
+      </c>
+      <c r="B182" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>326</v>
+      </c>
+      <c r="B183" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183">
+        <v>0.18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>327</v>
+      </c>
+      <c r="B184" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="C184">
+        <v>0.45</v>
+      </c>
+      <c r="D184" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185">
+        <v>0.25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>329</v>
+      </c>
+      <c r="B186" t="s">
+        <v>323</v>
+      </c>
+      <c r="C186">
+        <v>0.01</v>
+      </c>
+      <c r="D186" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187">
+        <v>0.25</v>
+      </c>
+      <c r="D187" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>331</v>
+      </c>
+      <c r="B188" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188">
+        <v>0.1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>344</v>
+      </c>
+      <c r="C189">
+        <f>2*$C$146</f>
+        <v>6620.4444444444434</v>
+      </c>
+      <c r="D189" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190">
+        <f>$C$189/$C$105</f>
+        <v>4256</v>
+      </c>
+      <c r="D190" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>348</v>
+      </c>
+      <c r="B191" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191">
+        <f>0.05 * $C$146</f>
+        <v>165.51111111111109</v>
+      </c>
+      <c r="D191" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>355</v>
+      </c>
+      <c r="C192">
+        <f>$C$190</f>
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>356</v>
+      </c>
+      <c r="C193">
+        <f>$C$156 / 0.95</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>357</v>
+      </c>
+      <c r="C194">
+        <f>$C$193-$C$156</f>
         <v>112</v>
       </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>153</v>
-      </c>
-      <c r="B87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>172</v>
-      </c>
-      <c r="B98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>186</v>
-      </c>
-      <c r="B107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>188</v>
-      </c>
-      <c r="B108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>190</v>
-      </c>
-      <c r="B110" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>200</v>
-      </c>
-      <c r="B117" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>206</v>
-      </c>
-      <c r="B120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>208</v>
-      </c>
-      <c r="B121" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>210</v>
-      </c>
-      <c r="B123" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>211</v>
-      </c>
-      <c r="B124" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>214</v>
-      </c>
-      <c r="B126" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>221</v>
-      </c>
-      <c r="B130" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>225</v>
-      </c>
-      <c r="B132" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>226</v>
-      </c>
-      <c r="B133" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>230</v>
-      </c>
-      <c r="B135" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>232</v>
-      </c>
-      <c r="B136" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>234</v>
-      </c>
-      <c r="B137" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>236</v>
-      </c>
-      <c r="B138" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>237</v>
-      </c>
-      <c r="B139" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>240</v>
-      </c>
-      <c r="B141" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>241</v>
-      </c>
-      <c r="B142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>243</v>
-      </c>
-      <c r="B143" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>245</v>
-      </c>
-      <c r="B144" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>247</v>
-      </c>
-      <c r="B145" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>251</v>
-      </c>
-      <c r="B146" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>252</v>
-      </c>
-      <c r="B147" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>253</v>
-      </c>
-      <c r="B148" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>255</v>
-      </c>
-      <c r="B149" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>257</v>
-      </c>
-      <c r="B150" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>259</v>
-      </c>
-      <c r="B151" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>260</v>
-      </c>
-      <c r="B152" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>266</v>
-      </c>
-      <c r="B153" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>267</v>
-      </c>
-      <c r="B154" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>268</v>
-      </c>
-      <c r="B155" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>265</v>
-      </c>
-      <c r="B156" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>270</v>
-      </c>
-      <c r="B157" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>272</v>
-      </c>
-      <c r="B158" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>274</v>
-      </c>
-      <c r="B159" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>276</v>
-      </c>
-      <c r="B160" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>278</v>
-      </c>
-      <c r="B161" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>280</v>
-      </c>
-      <c r="B162" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>282</v>
-      </c>
-      <c r="B163" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>284</v>
-      </c>
-      <c r="B164" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>286</v>
-      </c>
-      <c r="B165" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>288</v>
-      </c>
-      <c r="B166" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>290</v>
-      </c>
-      <c r="B167" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>294</v>
-      </c>
-      <c r="B169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>296</v>
-      </c>
-      <c r="B170" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>298</v>
-      </c>
-      <c r="B171" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>300</v>
-      </c>
-      <c r="B172" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>302</v>
-      </c>
-      <c r="B173" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>304</v>
-      </c>
-      <c r="B174" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>306</v>
-      </c>
-      <c r="B175" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>308</v>
-      </c>
-      <c r="B176" t="s">
-        <v>309</v>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>358</v>
+      </c>
+      <c r="B195" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195">
+        <f>$C$194/$C$193</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>359</v>
+      </c>
+      <c r="C196">
+        <f>$C$191/$C$101</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>360</v>
+      </c>
+      <c r="C197">
+        <f>$C$103</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>361</v>
+      </c>
+      <c r="C198">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>362</v>
+      </c>
+      <c r="C199">
+        <f>$C$118</f>
+        <v>1721.3155555555554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>363</v>
+      </c>
+      <c r="C200">
+        <f>$C$10</f>
+        <v>1125.4755555555555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>364</v>
+      </c>
+      <c r="B201" t="s">
+        <v>364</v>
+      </c>
+      <c r="C201">
+        <f>$C$103*$C$104</f>
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>365</v>
+      </c>
+      <c r="B202" t="s">
+        <v>365</v>
+      </c>
+      <c r="C202">
+        <f>(1+C7)/(1+C35) - 1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>367</v>
+      </c>
+      <c r="B203" t="s">
+        <v>366</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>371</v>
+      </c>
+      <c r="B204" t="s">
+        <v>372</v>
+      </c>
+      <c r="C204" s="3">
+        <f>1/2000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>375</v>
+      </c>
+      <c r="B205" t="s">
+        <v>374</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D188" xr:uid="{694CA5CD-2841-A746-BAFE-C817A3E9CEE4}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A83 A84:B84 A85:A1048576">
+  <conditionalFormatting sqref="A88:B88 A3:A87 A89:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B83 B85:B1048576">
+  <conditionalFormatting sqref="B3:B87 B89:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AF456-EB73-F141-BA72-FD7E7AD578D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/parameter_liste.xlsx
+++ b/resources/parameter_liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertoplitsch/R-Projects/sfc/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60F365-0175-F749-A90B-912E2CCE9791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFCCC8A-ADFB-DF43-8B0B-0AB6DD83A377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15420" windowHeight="18900" activeTab="1" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$A$2:$D$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="378">
   <si>
     <t>Parameter</t>
   </si>
@@ -1166,6 +1167,12 @@
   </si>
   <si>
     <t>shockpeg_e</t>
+  </si>
+  <si>
+    <t>mu_1</t>
+  </si>
+  <si>
+    <t>mu_2</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1236,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1560,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E9CCAC-ADB9-144B-906A-DDA1182C6744}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4107,6 +4134,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>376</v>
+      </c>
+      <c r="C206">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:D188" xr:uid="{694CA5CD-2841-A746-BAFE-C817A3E9CEE4}"/>
   <mergeCells count="1">
@@ -4114,10 +4157,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A88:B88 A3:A87 A89:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B87 B89:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4127,7 +4170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AF456-EB73-F141-BA72-FD7E7AD578D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/resources/parameter_liste.xlsx
+++ b/resources/parameter_liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertoplitsch/R-Projects/sfc/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFCCC8A-ADFB-DF43-8B0B-0AB6DD83A377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4281779D-26B1-E44F-9521-7E635207282B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15420" windowHeight="18900" activeTab="1" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7F340CBC-CD23-5E40-9E3F-EB5A68811994}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$D$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$A$2:$D$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="386">
   <si>
     <t>Parameter</t>
   </si>
@@ -491,9 +491,6 @@
     <t>grye</t>
   </si>
   <si>
-    <t>delta_k</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>gry</t>
   </si>
   <si>
-    <t>p_</t>
-  </si>
-  <si>
     <t>infl</t>
   </si>
   <si>
@@ -1173,6 +1167,36 @@
   </si>
   <si>
     <t>mu_2</t>
+  </si>
+  <si>
+    <t>popg</t>
+  </si>
+  <si>
+    <t>pgr</t>
+  </si>
+  <si>
+    <t>kgr</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>CGHc</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1232,31 +1256,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1587,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E9CCAC-ADB9-144B-906A-DDA1182C6744}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,11 +1632,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>$C$70 *5</f>
+        <f>C70 *5</f>
         <v>4.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1642,8 +1647,11 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>$C$149*$C$156</f>
+        <f>C149*C156</f>
         <v>106.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,8 +1662,11 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <f>$C$75*750</f>
+        <f>C75*750</f>
         <v>375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1666,8 +1677,11 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <f>(1-$C$99) * ($C$201 - $C$100 * $C$114-$C$129)</f>
+        <f>(1-C99) * (C201 - C100 * C114-C129)</f>
         <v>400.65983999999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,7 +1695,7 @@
         <v>0.02</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1703,22 +1717,22 @@
         <v>0.03</v>
       </c>
       <c r="D9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C10">
-        <f>0.17*$C$189</f>
+        <f>0.17*C189</f>
         <v>1125.4755555555555</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,11 +1743,11 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <f>0.01 * $C$189</f>
+        <f>0.01 * C189</f>
         <v>66.204444444444434</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,8 +1758,11 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f>$C$128</f>
+        <f>C128</f>
         <v>450.19022222222225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,8 +1781,11 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <f>$C$3*$C$4+$C$5+$C$6+$C$7*$C$39+$C$9*$C$11-$C$12</f>
+        <f>C3*C4+C5+C6+C7*C39+C9*C11-C12</f>
         <v>798.44908444444445</v>
+      </c>
+      <c r="D14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1776,8 +1796,11 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <f>0.842277*$C$51</f>
+        <f>0.842277*C51</f>
         <v>1218.8085100800001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,6 +1814,9 @@
         <f>C17*C105</f>
         <v>1820.622222222222</v>
       </c>
+      <c r="D16" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1803,6 +1829,9 @@
         <f>C145</f>
         <v>1170.4000000000001</v>
       </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1812,8 +1841,11 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <f>($C$19-$C$19)*$C$20</f>
-        <v>0</v>
+        <f>(C19-C19)*C20</f>
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,22 +1870,25 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <f>0.31 *$C$189/$C$19</f>
+        <f>0.31 *C189/C19</f>
         <v>410.46755555555546</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21">
         <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,6 +1901,9 @@
       <c r="C22">
         <v>3</v>
       </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1877,6 +1915,9 @@
       <c r="C23">
         <v>37</v>
       </c>
+      <c r="D23" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1886,8 +1927,11 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <f>($C$6+$C$25)/($C$19*$C$20)</f>
+        <f>(C6+C25)/(C19*C20)</f>
         <v>0.19522119815668207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,8 +1942,11 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <f>$C$18</f>
-        <v>0</v>
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,6 +1959,9 @@
       <c r="C26">
         <v>1.8749999999999999E-2</v>
       </c>
+      <c r="D26" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1924,7 +1974,7 @@
         <v>0.7</v>
       </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1938,7 +1988,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1952,7 +2002,7 @@
         <v>0.08</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,8 +2021,11 @@
         <v>48</v>
       </c>
       <c r="C31">
-        <f>$C$190</f>
+        <f>C190</f>
         <v>4256</v>
+      </c>
+      <c r="D31" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,10 +2038,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C33">
-        <f>$C$18</f>
+        <f>C18</f>
         <v>0</v>
       </c>
     </row>
@@ -2008,11 +2061,11 @@
         <v>54</v>
       </c>
       <c r="C35">
-        <f>$C$148</f>
+        <f>C148</f>
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2034,7 +2087,7 @@
         <v>0.2</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2045,8 +2098,11 @@
         <v>60</v>
       </c>
       <c r="C38">
-        <f>$C$189</f>
+        <f>C189</f>
         <v>6620.4444444444434</v>
+      </c>
+      <c r="D38" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,6 +2115,9 @@
       <c r="C39">
         <v>1383</v>
       </c>
+      <c r="D39" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2068,8 +2127,11 @@
         <v>63</v>
       </c>
       <c r="C40">
-        <f>$C$189 - $C$11 - $C$20 * $C$19</f>
+        <f>C189 - C11 - C20 * C19</f>
         <v>4501.9022222222211</v>
+      </c>
+      <c r="D40" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2145,7 @@
         <v>0.5</v>
       </c>
       <c r="D41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2159,7 @@
         <v>0.45</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,7 +2173,7 @@
         <v>0.25</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,7 +2187,7 @@
         <v>0.01</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,7 +2201,7 @@
         <v>0.25</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2215,7 @@
         <v>0.05</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,7 +2237,7 @@
         <v>0.03</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,8 +2248,11 @@
         <v>81</v>
       </c>
       <c r="C49">
-        <f>(1+$C$172)/(1+$C$35)-1</f>
+        <f>(1+C172)/(1+C35)-1</f>
         <v>0.19522119815668204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,32 +2265,32 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C51">
-        <f xml:space="preserve"> 0.68 *$C$106</f>
+        <f xml:space="preserve"> 0.68 *C106</f>
         <v>1447.0400000000002</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C52">
-        <f>$C$51*$C$105</f>
+        <f>C51*C105</f>
         <v>2250.951111111111</v>
       </c>
       <c r="D52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,8 +2301,11 @@
         <v>85</v>
       </c>
       <c r="C53">
-        <f>$C$38</f>
+        <f>C38</f>
         <v>6620.4444444444434</v>
+      </c>
+      <c r="D53" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,7 +2319,7 @@
         <v>0.18</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +2333,7 @@
         <v>0.3</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,7 +2347,7 @@
         <v>0.25</v>
       </c>
       <c r="D56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,7 +2361,7 @@
         <v>0.01</v>
       </c>
       <c r="D57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,7 +2375,7 @@
         <v>0.1</v>
       </c>
       <c r="D58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,7 +2389,7 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,7 +2403,7 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,11 +2414,11 @@
         <v>101</v>
       </c>
       <c r="C61">
-        <f>$C$106-$C$131-$C$145</f>
+        <f>C106-C131-C145</f>
         <v>157.59999999999991</v>
       </c>
       <c r="D61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,11 +2429,11 @@
         <v>102</v>
       </c>
       <c r="C62">
-        <f>$C$61 * $C$105</f>
+        <f>C61 * C105</f>
         <v>245.1555555555554</v>
       </c>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,7 +2447,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,7 +2461,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,7 +2475,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,6 +2489,9 @@
         <f>C67*C105</f>
         <v>1820.622222222222</v>
       </c>
+      <c r="D66" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2433,6 +2504,9 @@
         <f>C145</f>
         <v>1170.4000000000001</v>
       </c>
+      <c r="D67" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -2442,8 +2516,11 @@
         <v>114</v>
       </c>
       <c r="C68">
-        <f>$C$69*$C$105</f>
+        <f>C69*C105</f>
         <v>355.02676209777781</v>
+      </c>
+      <c r="D68" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,8 +2531,11 @@
         <v>116</v>
       </c>
       <c r="C69">
-        <f>0.157723*$C$51</f>
+        <f>0.157723*C51</f>
         <v>228.23148992000003</v>
+      </c>
+      <c r="D69" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2470,7 +2550,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,8 +2561,11 @@
         <v>120</v>
       </c>
       <c r="C71">
-        <f>$C$156-$C$4</f>
+        <f>C156-C4</f>
         <v>2021.6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,6 +2578,9 @@
       <c r="C72">
         <v>2000</v>
       </c>
+      <c r="D72" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2506,6 +2592,9 @@
       <c r="C73">
         <v>0</v>
       </c>
+      <c r="D73" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -2517,6 +2606,9 @@
       <c r="C74">
         <v>0</v>
       </c>
+      <c r="D74" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2528,6 +2620,9 @@
       <c r="C75">
         <v>0.5</v>
       </c>
+      <c r="D75" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -2539,6 +2634,9 @@
       <c r="C76">
         <v>0</v>
       </c>
+      <c r="D76" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -2550,6 +2648,9 @@
       <c r="C77">
         <v>0.01</v>
       </c>
+      <c r="D77" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -2562,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2576,7 +2677,7 @@
         <v>0.8</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,7 +2691,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2604,7 +2705,7 @@
         <v>0.08</v>
       </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2618,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,6 +2732,9 @@
       <c r="C83">
         <v>0</v>
       </c>
+      <c r="D83" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -2642,6 +2746,9 @@
       <c r="C84">
         <v>1000</v>
       </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -2661,6 +2768,9 @@
       <c r="C86">
         <v>1430</v>
       </c>
+      <c r="D86" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -2669,1224 +2779,1333 @@
       <c r="B87" t="s">
         <v>149</v>
       </c>
+      <c r="C87">
+        <f>$C$147</f>
+        <v>0.02</v>
+      </c>
+      <c r="D87" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" t="s">
         <v>150</v>
-      </c>
-      <c r="B88" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92">
         <v>0.2</v>
       </c>
       <c r="D92" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93">
         <v>0.4</v>
       </c>
       <c r="D93" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94">
-        <f>$C$20*$C$19/$C$101</f>
+        <f>C20*C19/C101</f>
         <v>0.62</v>
       </c>
       <c r="D94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95">
-        <f xml:space="preserve"> $C$114/$C$101</f>
+        <f xml:space="preserve"> C114/C101</f>
         <v>0.66</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
         <v>164</v>
       </c>
-      <c r="B96" t="s">
-        <v>165</v>
-      </c>
       <c r="C96">
-        <f>$C$106/$C$107</f>
+        <f>C106/C107</f>
         <v>0.76923076923076916</v>
       </c>
       <c r="D96" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97">
         <v>0.75</v>
       </c>
+      <c r="D97" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" t="s">
         <v>167</v>
       </c>
-      <c r="B98" t="s">
-        <v>168</v>
-      </c>
       <c r="C98">
-        <f>(1+$C$100)/(1+$C$35)-1</f>
+        <f>(1+C100)/(1+C35)-1</f>
         <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" t="s">
         <v>169</v>
-      </c>
-      <c r="B99" t="s">
-        <v>170</v>
       </c>
       <c r="C99">
         <v>0.1</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100">
         <v>0.03</v>
       </c>
       <c r="D100" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101">
-        <f>1*$C$146</f>
+        <f>1*C146</f>
         <v>3310.2222222222217</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" t="s">
         <v>173</v>
       </c>
-      <c r="B102" t="s">
-        <v>174</v>
-      </c>
       <c r="C102">
-        <f>$C$101/$C$105</f>
+        <f>C101/C105</f>
         <v>2128</v>
       </c>
       <c r="D102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" t="s">
         <v>175</v>
-      </c>
-      <c r="B103" t="s">
-        <v>176</v>
       </c>
       <c r="C103">
         <v>0.4</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
         <v>177</v>
       </c>
-      <c r="B104" t="s">
-        <v>178</v>
-      </c>
       <c r="C104">
-        <f>$C$115 * $C$156</f>
+        <f>C115 * C156</f>
         <v>2128</v>
+      </c>
+      <c r="D104" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105">
-        <f>(1 + $C$103) *$C$115/($C$112-$C$113)</f>
+        <f>(1 + C103) *C115/(C112-C113)</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
         <v>180</v>
       </c>
-      <c r="B106" t="s">
-        <v>181</v>
-      </c>
       <c r="C106">
-        <f>2.66*$C$131</f>
+        <f>2.66*C131</f>
         <v>2128</v>
       </c>
       <c r="D106" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107">
-        <f>$C$108*$C$102</f>
+        <f>C108*C102</f>
         <v>2766.4</v>
       </c>
       <c r="D107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108">
         <v>1.3</v>
       </c>
       <c r="D108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
         <v>184</v>
-      </c>
-      <c r="B109" t="s">
-        <v>185</v>
       </c>
       <c r="C109">
         <v>0.01</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110">
         <v>0.02</v>
       </c>
+      <c r="D110" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" t="s">
         <v>187</v>
       </c>
-      <c r="B111" t="s">
-        <v>188</v>
-      </c>
       <c r="C111">
-        <f>$C$154</f>
+        <f>C154</f>
         <v>0.02</v>
+      </c>
+      <c r="D111" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112">
-        <f>$C$149*$C$151+$C$150*$C$152</f>
+        <f>C149*C151+C150*C152</f>
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113">
         <v>0.1</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114">
-        <f>0.33*$C$189</f>
+        <f>0.33*C189</f>
         <v>2184.7466666666664</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115">
-        <f>$C$149*$C$3+$C$150*$C$70</f>
+        <f>C149*C3+C150*C70</f>
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" t="s">
         <v>194</v>
-      </c>
-      <c r="B117" t="s">
-        <v>195</v>
       </c>
       <c r="C117">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D117" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B118" t="s">
         <v>196</v>
       </c>
-      <c r="B118" t="s">
-        <v>197</v>
-      </c>
       <c r="C118">
-        <f>0.26 * $C$189</f>
+        <f>0.26 * C189</f>
         <v>1721.3155555555554</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" t="s">
         <v>198</v>
       </c>
-      <c r="B119" t="s">
-        <v>199</v>
-      </c>
       <c r="C119">
-        <f>0.18*$C$189</f>
+        <f>0.18*C189</f>
         <v>1191.6799999999998</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120">
-        <f>0.36 *$C$189</f>
+        <f>0.36 *C189</f>
         <v>2383.3599999999997</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" t="s">
         <v>201</v>
-      </c>
-      <c r="B121" t="s">
-        <v>202</v>
       </c>
       <c r="C121">
         <v>0.25</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" t="s">
         <v>203</v>
-      </c>
-      <c r="B122" t="s">
-        <v>204</v>
       </c>
       <c r="C122">
         <v>0.6</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" t="s">
         <v>205</v>
-      </c>
-      <c r="B123" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" t="s">
         <v>207</v>
-      </c>
-      <c r="B124" t="s">
-        <v>208</v>
       </c>
       <c r="C124">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C125">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="D125" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C126">
-        <f>0.086 * $C$52</f>
+        <f>0.086 * C52</f>
         <v>193.58179555555554</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" t="s">
         <v>212</v>
       </c>
-      <c r="B128" t="s">
-        <v>213</v>
-      </c>
       <c r="C128">
-        <f>$C$132*$C$52</f>
+        <f>C132*C52</f>
         <v>450.19022222222225</v>
+      </c>
+      <c r="D128" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C129">
-        <f>$C$130*$C$201</f>
+        <f>C130*C201</f>
         <v>340.48</v>
+      </c>
+      <c r="D129" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" t="s">
         <v>215</v>
-      </c>
-      <c r="B130" t="s">
-        <v>216</v>
       </c>
       <c r="C130">
         <v>0.4</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" t="s">
         <v>217</v>
-      </c>
-      <c r="B131" t="s">
-        <v>218</v>
       </c>
       <c r="C131">
         <v>800</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" t="s">
         <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>220</v>
       </c>
       <c r="C132">
         <v>0.2</v>
       </c>
       <c r="D132" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" t="s">
         <v>222</v>
-      </c>
-      <c r="B134" t="s">
-        <v>223</v>
       </c>
       <c r="C134">
         <v>100</v>
       </c>
+      <c r="D134" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" t="s">
         <v>224</v>
       </c>
-      <c r="B135" t="s">
-        <v>225</v>
-      </c>
       <c r="C135">
         <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C136">
         <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" t="s">
         <v>227</v>
       </c>
-      <c r="B137" t="s">
-        <v>228</v>
-      </c>
       <c r="C137">
         <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" t="s">
         <v>229</v>
       </c>
-      <c r="B138" t="s">
-        <v>230</v>
-      </c>
       <c r="C138">
         <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" t="s">
         <v>231</v>
       </c>
-      <c r="B139" t="s">
-        <v>232</v>
-      </c>
       <c r="C139">
         <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" t="s">
         <v>233</v>
-      </c>
-      <c r="B140" t="s">
-        <v>234</v>
       </c>
       <c r="C140">
         <v>0.5</v>
       </c>
+      <c r="D140" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" t="s">
         <v>235</v>
-      </c>
-      <c r="B141" t="s">
-        <v>236</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
+      <c r="D141" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C144">
-        <f>$C$145 * $C$105</f>
+        <f>C145 * C105</f>
         <v>1820.622222222222</v>
       </c>
       <c r="D144" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>238</v>
+      </c>
+      <c r="B145" t="s">
         <v>239</v>
       </c>
-      <c r="B145" t="s">
-        <v>240</v>
-      </c>
       <c r="C145">
-        <f>0.55 *$C$106</f>
+        <f>0.55 *C106</f>
         <v>1170.4000000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C146">
-        <f>$C$106*$C$105</f>
+        <f>C106*C105</f>
         <v>3310.2222222222217</v>
       </c>
       <c r="D146" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>241</v>
+      </c>
+      <c r="B147" t="s">
         <v>242</v>
-      </c>
-      <c r="B147" t="s">
-        <v>243</v>
       </c>
       <c r="C147">
         <v>0.02</v>
       </c>
       <c r="D147" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>244</v>
+        <v>377</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C149">
         <v>0.05</v>
       </c>
       <c r="D149" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C150">
         <v>0.95</v>
       </c>
       <c r="D150" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C151">
-        <f>5*$C$152</f>
+        <f>5*C152</f>
         <v>4.166666666666667</v>
       </c>
       <c r="D151" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C152" s="1">
         <f>10/12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D152" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C153">
         <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C154">
-        <f>$C$148 + $C$110</f>
+        <f>C148 + C110</f>
         <v>0.02</v>
+      </c>
+      <c r="D154" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C155">
         <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C156">
-        <f>$C$106/$C$112</f>
+        <f>C106/C112</f>
         <v>2128</v>
+      </c>
+      <c r="D156" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
+      <c r="D157" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C158">
         <v>0.05</v>
       </c>
+      <c r="D158" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C161">
-        <f>$C$110</f>
+        <f>C110</f>
         <v>0.02</v>
+      </c>
+      <c r="D161" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
+      <c r="D162" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C163">
         <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C164">
         <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C165">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C167">
-        <f>$C$110</f>
+        <f>C110</f>
         <v>0.02</v>
+      </c>
+      <c r="D167" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B169" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C169">
         <v>0.75</v>
       </c>
       <c r="D169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C170">
         <v>0.75</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B171" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C171">
         <v>0.75</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C172">
-        <f>$C$24</f>
+        <f>C24</f>
         <v>0.19522119815668207</v>
+      </c>
+      <c r="D172" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B173" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C173">
         <v>0.75</v>
       </c>
       <c r="D173" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B174" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C174">
-        <f>$C$26</f>
+        <f>C26</f>
         <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B175" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C175">
-        <f>$C$19</f>
+        <f>C19</f>
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C176">
         <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B177" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C177">
         <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B178" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C178">
         <v>0.75</v>
       </c>
       <c r="D178" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B179" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C179">
         <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B181" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B182" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C182">
         <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C183">
         <v>0.18</v>
       </c>
       <c r="D183" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
         <v>69</v>
@@ -3895,259 +4114,294 @@
         <v>0.45</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C185">
         <v>0.25</v>
       </c>
       <c r="D185" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C186">
         <v>0.01</v>
       </c>
       <c r="D186" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B187" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C187">
         <v>0.25</v>
       </c>
       <c r="D187" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C188">
         <v>0.1</v>
       </c>
       <c r="D188" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C189">
-        <f>2*$C$146</f>
+        <f>2*C146</f>
         <v>6620.4444444444434</v>
       </c>
       <c r="D189" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C190">
-        <f>$C$189/$C$105</f>
+        <f>C189/C105</f>
         <v>4256</v>
       </c>
       <c r="D190" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B191" t="s">
+        <v>345</v>
+      </c>
+      <c r="C191">
+        <f>0.05 * C146</f>
+        <v>165.51111111111109</v>
+      </c>
+      <c r="D191" t="s">
         <v>347</v>
-      </c>
-      <c r="C191">
-        <f>0.05 * $C$146</f>
-        <v>165.51111111111109</v>
-      </c>
-      <c r="D191" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
+        <v>353</v>
+      </c>
+      <c r="C192">
+        <f>C190</f>
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>354</v>
+      </c>
+      <c r="C193">
+        <f>C156 / 0.95</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
         <v>355</v>
       </c>
-      <c r="C192">
-        <f>$C$190</f>
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
+      <c r="C194">
+        <f>C193-C156</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>356</v>
       </c>
-      <c r="C193">
-        <f>$C$156 / 0.95</f>
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+      <c r="B195" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195">
+        <f>C194/C193</f>
+        <v>0.05</v>
+      </c>
+      <c r="D195" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
         <v>357</v>
       </c>
-      <c r="C194">
-        <f>$C$193-$C$156</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="C196">
+        <f>C191/C101</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
         <v>358</v>
       </c>
-      <c r="B195" t="s">
-        <v>358</v>
-      </c>
-      <c r="C195">
-        <f>$C$194/$C$193</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
+      <c r="C197">
+        <f>C103</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
         <v>359</v>
-      </c>
-      <c r="C196">
-        <f>$C$191/$C$101</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>360</v>
-      </c>
-      <c r="C197">
-        <f>$C$103</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>361</v>
       </c>
       <c r="C198">
         <v>0.2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
+        <v>360</v>
+      </c>
+      <c r="C199">
+        <f>C118</f>
+        <v>1721.3155555555554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>361</v>
+      </c>
+      <c r="C200">
+        <f>C10</f>
+        <v>1125.4755555555555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>362</v>
       </c>
-      <c r="C199">
-        <f>$C$118</f>
-        <v>1721.3155555555554</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
+      <c r="B201" t="s">
+        <v>362</v>
+      </c>
+      <c r="C201">
+        <f>C103*C104</f>
+        <v>851.2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>363</v>
       </c>
-      <c r="C200">
-        <f>$C$10</f>
-        <v>1125.4755555555555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>364</v>
-      </c>
-      <c r="B201" t="s">
-        <v>364</v>
-      </c>
-      <c r="C201">
-        <f>$C$103*$C$104</f>
-        <v>851.2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>365</v>
-      </c>
       <c r="B202" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C202">
         <f>(1+C7)/(1+C35) - 1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B204" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C204" s="3">
         <f>1/2000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B205" t="s">
+        <v>372</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>374</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
-        <v>376</v>
       </c>
       <c r="C206">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
-        <v>377</v>
+      <c r="D206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>375</v>
       </c>
       <c r="C207">
         <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>376</v>
+      </c>
+      <c r="C208">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4156,11 +4410,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A88:B88 A3:A87 A89:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="A88:B88 A3:A87 A89:A205 A208:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B87 B89:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="B3:B87 B89:B205 B208:B1048576 A206:A207">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4168,14 +4422,4089 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AF456-EB73-F141-BA72-FD7E7AD578D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(M2,",",".")</f>
+        <v>4.16666666666667</v>
+      </c>
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" t="str">
+        <f>SUBSTITUTE(M3,",",".")</f>
+        <v>106.4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M3" s="5">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K67" si="0">SUBSTITUTE(M4,",",".")</f>
+        <v>375</v>
+      </c>
+      <c r="L4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>383</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>400.65984</v>
+      </c>
+      <c r="L5" t="s">
+        <v>384</v>
+      </c>
+      <c r="M5" s="5">
+        <v>400.65983999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>450.190222222222</v>
+      </c>
+      <c r="L6" t="s">
+        <v>384</v>
+      </c>
+      <c r="M6" s="5">
+        <v>450.19022222222225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>798.449084444444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M7" s="5">
+        <v>798.44908444444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>383</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>1218.80851008</v>
+      </c>
+      <c r="L8" t="s">
+        <v>384</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1218.8085100800001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>383</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>1820.62222222222</v>
+      </c>
+      <c r="L9" t="s">
+        <v>384</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1820.622222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>1170.4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>384</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>384</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>384</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>410.467555555555</v>
+      </c>
+      <c r="L13" t="s">
+        <v>384</v>
+      </c>
+      <c r="M13" s="5">
+        <v>410.46755555555546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>383</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>384</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>383</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>384</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>383</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>384</v>
+      </c>
+      <c r="M16" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1125.4755555555555</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>383</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>0.195221198156682</v>
+      </c>
+      <c r="L17" t="s">
+        <v>384</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.19522119815668207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>66.204444444444434</v>
+      </c>
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>384</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2184.7466666666664</v>
+      </c>
+      <c r="D19" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.01875</v>
+      </c>
+      <c r="L19" t="s">
+        <v>384</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1721.3155555555554</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>4256</v>
+      </c>
+      <c r="L20" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="5">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1191.6799999999998</v>
+      </c>
+      <c r="D21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>6620.44444444444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>384</v>
+      </c>
+      <c r="M21" s="5">
+        <v>6620.4444444444434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2383.3599999999997</v>
+      </c>
+      <c r="D22" t="s">
+        <v>348</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>383</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>1383</v>
+      </c>
+      <c r="L22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="5">
+        <v>193.58179555555554</v>
+      </c>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>4501.90222222222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>384</v>
+      </c>
+      <c r="M23" s="5">
+        <v>4501.9022222222211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6620.4444444444434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I24" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" t="s">
+        <v>383</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>1447.04</v>
+      </c>
+      <c r="L24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1447.0400000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J25" t="s">
+        <v>383</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>2250.95111111111</v>
+      </c>
+      <c r="L25" t="s">
+        <v>384</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2250.951111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>6620.44444444444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6620.4444444444434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>316</v>
+      </c>
+      <c r="I27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>383</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>157.6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" s="5">
+        <v>157.59999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" t="s">
+        <v>383</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>245.155555555555</v>
+      </c>
+      <c r="L28" t="s">
+        <v>384</v>
+      </c>
+      <c r="M28" s="5">
+        <v>245.1555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" t="s">
+        <v>383</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>1820.62222222222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>384</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1820.622222222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>383</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>1170.4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>383</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>355.026762097778</v>
+      </c>
+      <c r="L31" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" s="5">
+        <v>355.02676209777781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>350</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" t="s">
+        <v>383</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>228.23148992</v>
+      </c>
+      <c r="L32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M32" s="5">
+        <v>228.23148992000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>383</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L33" t="s">
+        <v>384</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>350</v>
+      </c>
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" t="s">
+        <v>383</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>2021.6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>384</v>
+      </c>
+      <c r="M34" s="5">
+        <v>2021.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3310.2222222222217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>350</v>
+      </c>
+      <c r="I35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" t="s">
+        <v>383</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L35" t="s">
+        <v>384</v>
+      </c>
+      <c r="M35" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" t="s">
+        <v>383</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>384</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
+        <v>383</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>384</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" t="s">
+        <v>383</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>384</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>311</v>
+      </c>
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" t="s">
+        <v>383</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>384</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>383</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="L40" t="s">
+        <v>384</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>311</v>
+      </c>
+      <c r="I41" t="s">
+        <v>142</v>
+      </c>
+      <c r="J41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L41" t="s">
+        <v>384</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>314</v>
+      </c>
+      <c r="I42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" t="s">
+        <v>383</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>1430</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2766.4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>351</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>380</v>
+      </c>
+      <c r="I45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>2128</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" s="5">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>1.55555555555556</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1.5555555555555554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D47" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>2128</v>
+      </c>
+      <c r="L47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M47" s="5">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D48" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="L48" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>380</v>
+      </c>
+      <c r="I50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>380</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="5">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>380</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>450.190222222222</v>
+      </c>
+      <c r="L52" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" s="5">
+        <v>450.19022222222225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="I53" t="s">
+        <v>213</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>340.48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" s="5">
+        <v>340.48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="L54" t="s">
+        <v>384</v>
+      </c>
+      <c r="M54" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>331</v>
+      </c>
+      <c r="I55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
+        <v>384</v>
+      </c>
+      <c r="M55" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" t="s">
+        <v>223</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>384</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>330</v>
+      </c>
+      <c r="I57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>384</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>330</v>
+      </c>
+      <c r="I59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>384</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="s">
+        <v>330</v>
+      </c>
+      <c r="I60" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>384</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>330</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>383</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>1820.62222222222</v>
+      </c>
+      <c r="L61" t="s">
+        <v>384</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1820.622222222222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D62" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" t="s">
+        <v>383</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>1170.4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>384</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" t="s">
+        <v>240</v>
+      </c>
+      <c r="J63" t="s">
+        <v>383</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>3310.22222222222</v>
+      </c>
+      <c r="L63" t="s">
+        <v>384</v>
+      </c>
+      <c r="M63" s="5">
+        <v>3310.2222222222217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" t="s">
+        <v>241</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="L64" t="s">
+        <v>384</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" t="s">
+        <v>377</v>
+      </c>
+      <c r="J65" t="s">
+        <v>383</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>384</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D66" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" t="s">
+        <v>244</v>
+      </c>
+      <c r="J66" t="s">
+        <v>383</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="L66" t="s">
+        <v>384</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" t="s">
+        <v>246</v>
+      </c>
+      <c r="J67" t="s">
+        <v>383</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="L67" t="s">
+        <v>384</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D68" t="s">
+        <v>330</v>
+      </c>
+      <c r="I68" t="s">
+        <v>250</v>
+      </c>
+      <c r="J68" t="s">
+        <v>383</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K85" si="1">SUBSTITUTE(M68,",",".")</f>
+        <v>4.16666666666667</v>
+      </c>
+      <c r="L68" t="s">
+        <v>384</v>
+      </c>
+      <c r="M68" s="5">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" t="s">
+        <v>251</v>
+      </c>
+      <c r="J69" t="s">
+        <v>383</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L69" t="s">
+        <v>384</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70" t="s">
+        <v>252</v>
+      </c>
+      <c r="J70" t="s">
+        <v>383</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>384</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I71" t="s">
+        <v>254</v>
+      </c>
+      <c r="J71" t="s">
+        <v>383</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="L71" t="s">
+        <v>384</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D72" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" t="s">
+        <v>256</v>
+      </c>
+      <c r="J72" t="s">
+        <v>383</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>384</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" t="s">
+        <v>258</v>
+      </c>
+      <c r="J73" t="s">
+        <v>383</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
+        <v>2128</v>
+      </c>
+      <c r="L73" t="s">
+        <v>384</v>
+      </c>
+      <c r="M73" s="5">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>330</v>
+      </c>
+      <c r="I74" t="s">
+        <v>259</v>
+      </c>
+      <c r="J74" t="s">
+        <v>383</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>384</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D75" t="s">
+        <v>332</v>
+      </c>
+      <c r="I75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J75" t="s">
+        <v>383</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="L75" t="s">
+        <v>384</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D76" t="s">
+        <v>332</v>
+      </c>
+      <c r="I76" t="s">
+        <v>289</v>
+      </c>
+      <c r="J76" t="s">
+        <v>383</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
+        <v>0.195221198156682</v>
+      </c>
+      <c r="L76" t="s">
+        <v>384</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0.19522119815668207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D77" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" t="s">
+        <v>383</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01875</v>
+      </c>
+      <c r="L77" t="s">
+        <v>384</v>
+      </c>
+      <c r="M77" s="5">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.19522119815668204</v>
+      </c>
+      <c r="D78" t="s">
+        <v>332</v>
+      </c>
+      <c r="I78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J78" t="s">
+        <v>383</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L78" t="s">
+        <v>384</v>
+      </c>
+      <c r="M78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="5">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>332</v>
+      </c>
+      <c r="I79" t="s">
+        <v>367</v>
+      </c>
+      <c r="J79" t="s">
+        <v>383</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>384</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D80" t="s">
+        <v>332</v>
+      </c>
+      <c r="I80" t="s">
+        <v>297</v>
+      </c>
+      <c r="J80" t="s">
+        <v>383</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>384</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>332</v>
+      </c>
+      <c r="I81" t="s">
+        <v>306</v>
+      </c>
+      <c r="J81" t="s">
+        <v>383</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>384</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>332</v>
+      </c>
+      <c r="I82" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" t="s">
+        <v>383</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="L82" t="s">
+        <v>384</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>379</v>
+      </c>
+      <c r="I83" t="s">
+        <v>362</v>
+      </c>
+      <c r="J83" t="s">
+        <v>383</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>851.2</v>
+      </c>
+      <c r="L83" t="s">
+        <v>384</v>
+      </c>
+      <c r="M83" s="5">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="I84" t="s">
+        <v>363</v>
+      </c>
+      <c r="J84" t="s">
+        <v>383</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="L84" t="s">
+        <v>384</v>
+      </c>
+      <c r="M84" s="5">
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
+        <v>106.4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>334</v>
+      </c>
+      <c r="I85" t="s">
+        <v>365</v>
+      </c>
+      <c r="J85" t="s">
+        <v>383</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>384</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>375</v>
+      </c>
+      <c r="D86" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="5">
+        <v>400.65983999999997</v>
+      </c>
+      <c r="D87" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5">
+        <v>450.19022222222225</v>
+      </c>
+      <c r="D88" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="5">
+        <v>798.44908444444445</v>
+      </c>
+      <c r="D89" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1218.8085100800001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1820.622222222222</v>
+      </c>
+      <c r="D91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+      <c r="D92" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="5">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="5">
+        <v>410.46755555555546</v>
+      </c>
+      <c r="D95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="5">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="5">
+        <v>37</v>
+      </c>
+      <c r="D98" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.19522119815668207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="5">
+        <v>4256</v>
+      </c>
+      <c r="D102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="5">
+        <v>6620.4444444444434</v>
+      </c>
+      <c r="D103" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1383</v>
+      </c>
+      <c r="D104" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="5">
+        <v>4501.9022222222211</v>
+      </c>
+      <c r="D105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1447.0400000000002</v>
+      </c>
+      <c r="D106" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2250.951111111111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="5">
+        <v>6620.4444444444434</v>
+      </c>
+      <c r="D108" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="5">
+        <v>157.59999999999991</v>
+      </c>
+      <c r="D109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="5">
+        <v>245.1555555555554</v>
+      </c>
+      <c r="D110" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1820.622222222222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+      <c r="D112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="5">
+        <v>355.02676209777781</v>
+      </c>
+      <c r="D113" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="5">
+        <v>228.23148992000003</v>
+      </c>
+      <c r="D114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D115" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2021.6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D117" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D123" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1430</v>
+      </c>
+      <c r="D124" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D125" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2128</v>
+      </c>
+      <c r="D127" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="D128" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2128</v>
+      </c>
+      <c r="D129" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D130" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D131" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="5">
+        <v>450.19022222222225</v>
+      </c>
+      <c r="D134" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="5">
+        <v>340.48</v>
+      </c>
+      <c r="D135" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" s="5">
+        <v>800</v>
+      </c>
+      <c r="D136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="5">
+        <v>100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" t="s">
+        <v>224</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>228</v>
+      </c>
+      <c r="B141" t="s">
+        <v>229</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" t="s">
+        <v>231</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" t="s">
+        <v>341</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1820.622222222222</v>
+      </c>
+      <c r="D143" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1170.4000000000001</v>
+      </c>
+      <c r="D144" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" s="5">
+        <v>3310.2222222222217</v>
+      </c>
+      <c r="D145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D146" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" t="s">
+        <v>245</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D148" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" t="s">
+        <v>247</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D151" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155" s="5">
+        <v>2128</v>
+      </c>
+      <c r="D155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>289</v>
+      </c>
+      <c r="B158" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="5">
+        <v>0.19522119815668207</v>
+      </c>
+      <c r="D158" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="5">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>295</v>
+      </c>
+      <c r="B160" t="s">
+        <v>296</v>
+      </c>
+      <c r="C160" s="5">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>367</v>
+      </c>
+      <c r="B161" t="s">
+        <v>368</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>356</v>
+      </c>
+      <c r="B164" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D164" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>362</v>
+      </c>
+      <c r="B165" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" s="5">
+        <v>851.2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>363</v>
+      </c>
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+      <c r="C166" s="5">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" t="s">
+        <v>364</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>376</v>
+      </c>
+      <c r="C168" s="5">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>345</v>
+      </c>
+      <c r="C171" s="5">
+        <v>165.51111111111109</v>
+      </c>
+      <c r="D171" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D172" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>272</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>273</v>
+      </c>
+      <c r="B174" t="s">
+        <v>274</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>301</v>
+      </c>
+      <c r="B175" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>214</v>
+      </c>
+      <c r="B178" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>218</v>
+      </c>
+      <c r="B179" t="s">
+        <v>219</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D180" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>77</v>
+      </c>
+      <c r="B188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>281</v>
+      </c>
+      <c r="B198" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>302</v>
+      </c>
+      <c r="B199" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>304</v>
+      </c>
+      <c r="B200" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>353</v>
+      </c>
+      <c r="C201" s="5">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="5">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>355</v>
+      </c>
+      <c r="C203" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>357</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>358</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>359</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1721.3155555555554</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>361</v>
+      </c>
+      <c r="C208" s="5">
+        <v>1125.4755555555555</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{8945E4F7-5ABA-2449-8B41-95FD1C93880C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D208">
+      <sortCondition ref="D2:D208"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>